--- a/Data/Osteomyelitis_Underlying_Age_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Underlying_Age_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB645E2-48D1-5843-B417-715573123BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FE6CA-B703-6041-9A54-14F6B13BA9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="920" windowWidth="27640" windowHeight="16740" activeTab="3" xr2:uid="{3CFE7D67-1D32-9445-8A73-7358F2E01D8F}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="1" xr2:uid="{3CFE7D67-1D32-9445-8A73-7358F2E01D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>Notes</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Crude_UCI</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -2022,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66D98B1-D47A-7C48-8EC8-65F1B8D9644B}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2046,7 +2049,9 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -2054,8 +2059,8 @@
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2068,8 +2073,8 @@
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2082,8 +2087,8 @@
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2096,8 +2101,8 @@
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2110,7 +2115,9 @@
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
@@ -2118,8 +2125,8 @@
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2132,8 +2139,8 @@
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2146,8 +2153,8 @@
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C10">
         <v>0.01</v>
@@ -2160,7 +2167,9 @@
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
@@ -2168,8 +2177,8 @@
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2182,8 +2191,8 @@
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2196,7 +2205,9 @@
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
@@ -2204,8 +2215,8 @@
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2218,8 +2229,8 @@
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C16">
         <v>0.01</v>
@@ -2232,8 +2243,8 @@
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2246,8 +2257,8 @@
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2260,8 +2271,8 @@
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C19">
         <v>0.01</v>
@@ -2274,8 +2285,8 @@
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20">
-        <v>0.02</v>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C20">
         <v>0.01</v>
@@ -2288,8 +2299,8 @@
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C21">
         <v>0.01</v>
@@ -2302,8 +2313,8 @@
       <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B22">
-        <v>0.02</v>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C22">
         <v>0.01</v>
@@ -2316,8 +2327,8 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23">
-        <v>0.02</v>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C23">
         <v>0.01</v>
@@ -2330,8 +2341,8 @@
       <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.02</v>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>0.02</v>
@@ -2345,7 +2356,7 @@
         <v>2022</v>
       </c>
       <c r="B25" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C25" s="1">
         <v>0.02</v>
@@ -2359,7 +2370,7 @@
         <v>2023</v>
       </c>
       <c r="B26" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C26" s="1">
         <v>0.01</v>
@@ -2378,7 +2389,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D26"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2402,7 +2413,7 @@
         <v>1999</v>
       </c>
       <c r="B2" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C2" s="1">
         <v>0.12</v>
@@ -2416,7 +2427,7 @@
         <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C3" s="1">
         <v>0.14000000000000001</v>
@@ -2444,7 +2455,7 @@
         <v>2002</v>
       </c>
       <c r="B5" s="1">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="1">
         <v>0.18</v>
@@ -2458,7 +2469,7 @@
         <v>2003</v>
       </c>
       <c r="B6" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="1">
         <v>0.21</v>
@@ -2486,7 +2497,7 @@
         <v>2005</v>
       </c>
       <c r="B8" s="1">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C8" s="1">
         <v>0.23</v>
@@ -2528,7 +2539,7 @@
         <v>2008</v>
       </c>
       <c r="B11" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C11" s="1">
         <v>0.21</v>
@@ -2542,7 +2553,7 @@
         <v>2009</v>
       </c>
       <c r="B12" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="1">
         <v>0.26</v>
@@ -2556,7 +2567,7 @@
         <v>2010</v>
       </c>
       <c r="B13" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="1">
         <v>0.26</v>
@@ -2570,7 +2581,7 @@
         <v>2011</v>
       </c>
       <c r="B14" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="C14" s="1">
         <v>0.25</v>
@@ -2584,7 +2595,7 @@
         <v>2012</v>
       </c>
       <c r="B15" s="1">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="C15" s="1">
         <v>0.28000000000000003</v>
@@ -2598,7 +2609,7 @@
         <v>2013</v>
       </c>
       <c r="B16" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="1">
         <v>0.27</v>
@@ -2612,7 +2623,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="1">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="C17" s="1">
         <v>0.3</v>
@@ -2626,7 +2637,7 @@
         <v>2015</v>
       </c>
       <c r="B18" s="1">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="C18" s="1">
         <v>0.35</v>
@@ -2640,7 +2651,7 @@
         <v>2016</v>
       </c>
       <c r="B19" s="1">
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C19" s="1">
         <v>0.35</v>
@@ -2654,7 +2665,7 @@
         <v>2017</v>
       </c>
       <c r="B20" s="1">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="C20" s="1">
         <v>0.42</v>
@@ -2668,7 +2679,7 @@
         <v>2018</v>
       </c>
       <c r="B21" s="1">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="C21" s="1">
         <v>0.43</v>
@@ -2682,7 +2693,7 @@
         <v>2019</v>
       </c>
       <c r="B22" s="1">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="C22" s="1">
         <v>0.48</v>
@@ -2696,7 +2707,7 @@
         <v>2020</v>
       </c>
       <c r="B23" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="C23" s="1">
         <v>0.51</v>
@@ -2710,7 +2721,7 @@
         <v>2021</v>
       </c>
       <c r="B24" s="1">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C24" s="1">
         <v>0.6</v>
@@ -2724,7 +2735,7 @@
         <v>2022</v>
       </c>
       <c r="B25" s="1">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="C25" s="1">
         <v>0.69</v>
@@ -2738,7 +2749,7 @@
         <v>2023</v>
       </c>
       <c r="B26" s="1">
-        <v>0.67</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C26" s="1">
         <v>0.63</v>
@@ -2756,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE715065-D02A-8F4C-A765-CBEECA0132DE}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2781,7 +2792,7 @@
         <v>1999</v>
       </c>
       <c r="B2" s="1">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C2" s="1">
         <v>2.44</v>
@@ -2795,7 +2806,7 @@
         <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="C3" s="1">
         <v>2.73</v>
@@ -2809,7 +2820,7 @@
         <v>2001</v>
       </c>
       <c r="B4" s="1">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="C4" s="1">
         <v>3.09</v>
@@ -2823,7 +2834,7 @@
         <v>2002</v>
       </c>
       <c r="B5" s="1">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="C5" s="1">
         <v>3.05</v>
@@ -2837,7 +2848,7 @@
         <v>2003</v>
       </c>
       <c r="B6" s="1">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="C6" s="1">
         <v>3.15</v>
@@ -2851,7 +2862,7 @@
         <v>2004</v>
       </c>
       <c r="B7" s="1">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="C7" s="1">
         <v>3.39</v>
@@ -2865,7 +2876,7 @@
         <v>2005</v>
       </c>
       <c r="B8" s="1">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="C8" s="1">
         <v>3.17</v>
@@ -2879,7 +2890,7 @@
         <v>2006</v>
       </c>
       <c r="B9" s="1">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="C9" s="1">
         <v>3.09</v>
@@ -2893,7 +2904,7 @@
         <v>2007</v>
       </c>
       <c r="B10" s="1">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="C10" s="1">
         <v>3.23</v>
@@ -2907,7 +2918,7 @@
         <v>2008</v>
       </c>
       <c r="B11" s="1">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="C11" s="1">
         <v>3.11</v>
@@ -2921,7 +2932,7 @@
         <v>2009</v>
       </c>
       <c r="B12" s="1">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="C12" s="1">
         <v>2.96</v>
@@ -2935,7 +2946,7 @@
         <v>2010</v>
       </c>
       <c r="B13" s="1">
-        <v>3.18</v>
+        <v>3.09</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -2949,7 +2960,7 @@
         <v>2011</v>
       </c>
       <c r="B14" s="1">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="C14" s="1">
         <v>3.25</v>
@@ -2963,7 +2974,7 @@
         <v>2012</v>
       </c>
       <c r="B15" s="1">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="C15" s="1">
         <v>3.26</v>
@@ -2977,7 +2988,7 @@
         <v>2013</v>
       </c>
       <c r="B16" s="1">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="C16" s="1">
         <v>3.22</v>
@@ -2991,7 +3002,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="1">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="C17" s="1">
         <v>3.3</v>
@@ -3005,7 +3016,7 @@
         <v>2015</v>
       </c>
       <c r="B18" s="1">
-        <v>3.84</v>
+        <v>3.96</v>
       </c>
       <c r="C18" s="1">
         <v>3.66</v>
@@ -3019,7 +3030,7 @@
         <v>2016</v>
       </c>
       <c r="B19" s="1">
-        <v>3.99</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C19" s="1">
         <v>3.81</v>
@@ -3033,7 +3044,7 @@
         <v>2017</v>
       </c>
       <c r="B20" s="1">
-        <v>4.2699999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C20" s="1">
         <v>4.09</v>
@@ -3047,7 +3058,7 @@
         <v>2018</v>
       </c>
       <c r="B21" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C21" s="1">
         <v>4.22</v>
@@ -3061,7 +3072,7 @@
         <v>2019</v>
       </c>
       <c r="B22" s="1">
-        <v>4.7300000000000004</v>
+        <v>4.91</v>
       </c>
       <c r="C22" s="1">
         <v>4.54</v>
@@ -3075,7 +3086,7 @@
         <v>2020</v>
       </c>
       <c r="B23" s="1">
-        <v>5.24</v>
+        <v>5.42</v>
       </c>
       <c r="C23" s="1">
         <v>5.05</v>
@@ -3089,7 +3100,7 @@
         <v>2021</v>
       </c>
       <c r="B24" s="1">
-        <v>6.08</v>
+        <v>6.55</v>
       </c>
       <c r="C24" s="1">
         <v>5.88</v>
@@ -3103,7 +3114,7 @@
         <v>2022</v>
       </c>
       <c r="B25" s="1">
-        <v>6.22</v>
+        <v>6.62</v>
       </c>
       <c r="C25" s="1">
         <v>6.02</v>
@@ -3117,7 +3128,7 @@
         <v>2023</v>
       </c>
       <c r="B26" s="1">
-        <v>6.4</v>
+        <v>6.91</v>
       </c>
       <c r="C26" s="1">
         <v>6.19</v>
